--- a/estate-taxes_worldwide_data.xlsx
+++ b/estate-taxes_worldwide_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Dropbox/Dan dropbox files/tax policy associates/estate taxes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/PycharmProjects/estate_taxes_worldwide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFBBA6-FCED-8A46-88CC-118EC89C5600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A1265-F43E-4C40-B8DC-7D8AAC4B3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{4FD5AC8A-C889-CB44-B670-55F4DB9730DA}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{4FD5AC8A-C889-CB44-B670-55F4DB9730DA}"/>
   </bookViews>
   <sheets>
     <sheet name="IHT bands" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="92">
   <si>
     <t>Japan</t>
   </si>
@@ -308,6 +308,15 @@
   <si>
     <t>resi_taper_%</t>
   </si>
+  <si>
+    <t>USD average salary</t>
+  </si>
+  <si>
+    <t>Local average salary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +465,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -494,6 +503,7 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -834,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563D94CF-7012-BE49-B0C7-6094E390F06A}">
   <dimension ref="A1:G524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B521" sqref="B521"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13562,7 +13572,7 @@
   <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14448,12 +14458,10 @@
         <v>2.49E-3</v>
       </c>
       <c r="C21" s="12">
-        <f>H21/650 * 175</f>
-        <v>4.0265848776733142</v>
+        <v>9.4628979835890323</v>
       </c>
       <c r="D21" s="12">
-        <f>H21/650 * 2000</f>
-        <v>46.018112887695011</v>
+        <v>54.073702763365901</v>
       </c>
       <c r="E21" s="18">
         <v>0.5</v>
@@ -14465,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <v>14.955886688500879</v>
+        <v>18.925795967178065</v>
       </c>
       <c r="I21" s="16">
         <v>0.4</v>
@@ -14502,313 +14510,605 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52916C50-B2EF-CB47-AE1B-07544A717476}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5">
         <v>55206.393663582698</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="19">
+        <v>87470.721518784005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>53131.847260151197</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="19">
+        <v>44788.712680431403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>54326.598174754799</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="19">
+        <v>45832.580223533703</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
         <v>55342.042895306397</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="19">
+        <v>72259.551987972707</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>26728.9187554196</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C9" s="19">
+        <v>12831073.406396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="6">
         <v>29884.5888161355</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="19">
+        <v>437975.32470102498</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>58429.652138896803</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="19">
+        <v>447520.944312762</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>30720.263072318699</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="19">
+        <v>18805.255438404602</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>46229.570198900998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="19">
+        <v>42769.009492092002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6">
         <v>45580.704530433701</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="19">
+        <v>38077.8014997926</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5">
         <v>53744.998601075298</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="19">
+        <v>42593.126371346603</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="6">
         <v>27207.323988621902</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="19">
+        <v>17098.5787972693</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="5">
         <v>25408.612929539999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="19">
+        <v>4209324.3909857599</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>67488.013106320795</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="19">
+        <v>10567185.2227947</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="5">
         <v>49473.552842319201</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="19">
+        <v>49296.437523143701</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>39321.710392535599</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="19">
+        <v>161534.29408332301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>37769.096076078204</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="19">
+        <v>27997.022310122298</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="6">
         <v>38514.865062966397</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="19">
+        <v>4395256.1637367699</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5">
         <v>41960.270382837698</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="19">
+        <v>41225632.108948797</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="6">
         <v>29876.419722536099</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="19">
+        <v>16740.7140159681</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="5">
         <v>31810.980084997402</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="19">
+        <v>16075.360676152601</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>65854.011337394695</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="19">
+        <v>65587.961131591597</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="5">
         <v>16229.9243523757</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="19">
+        <v>179975.85464313001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="6">
         <v>58827.503536622498</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="19">
+        <v>50172.624733803998</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="5">
         <v>45269.482805504202</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="19">
+        <v>72772.8212755399</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="6">
         <v>55779.829522948501</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="19">
+        <v>592674.968317686</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="5">
         <v>32527.051641676699</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="19">
+        <v>62809.931882387602</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="6">
         <v>28410.038145912698</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C32" s="19">
+        <v>18509.338722329099</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="5">
         <v>23618.998738876799</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="19">
+        <v>15274.6190554203</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="6">
         <v>41445.174282317203</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="19">
+        <v>26269.070479838301</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="5">
         <v>37922.2024818766</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="19">
+        <v>26536.630019730401</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="6">
         <v>47020.489887812902</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="19">
+        <v>449059.26735019003</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>64824.381094918397</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C37" s="19">
+        <v>86899.870306125304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="6">
         <v>47147.2016194233</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="19">
+        <v>36986.555345622997</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="5">
         <v>69391.8064217965</v>
       </c>
+      <c r="C39" s="19">
+        <v>69391.8064217965</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A20" r:id="rId1" tooltip="Click once to display linked information. Click and hold to select this cell." display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=AV_AN_WAGE&amp;Coords=[COUNTRY].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{23D55106-B335-1D4A-AF1C-6EB63BD29769}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>